--- a/DevelopChecklist.xlsx
+++ b/DevelopChecklist.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\laragon\www\innoboxrr\packages\domain-manager\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\innoboxrr\packages\domain-manager\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A4FB267-01C9-4E54-8D3A-2DF73CD9F1EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B377101-12ED-41E0-ACAA-29E2FDD51979}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C4B8113D-0672-4603-BE1D-648575D65001}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C4B8113D-0672-4603-BE1D-648575D65001}"/>
   </bookViews>
   <sheets>
     <sheet name="Policy" sheetId="7" r:id="rId1"/>
@@ -100,57 +100,57 @@
     </comment>
     <comment ref="AE3" authorId="1" shapeId="0" xr:uid="{252DDB23-4005-4FA4-A024-A6ACE29A6BF0}">
       <text>
-        <t>[Comentario encadenado]
-Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
-Comentario:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     Cuando se tengan todos los payload definidos, se deben distribuir en el archivo de exportación de excel</t>
       </text>
     </comment>
     <comment ref="AH3" authorId="2" shapeId="0" xr:uid="{7E0D6798-4564-4470-8223-D0545701785D}">
       <text>
-        <t>[Comentario encadenado]
-Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
-Comentario:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     Aun se debe verificar cuáles modelos no requieren autenticación</t>
       </text>
     </comment>
     <comment ref="AI3" authorId="3" shapeId="0" xr:uid="{D050F0FC-368E-48DB-8F1E-EF57E7B67E66}">
       <text>
-        <t>[Comentario encadenado]
-Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
-Comentario:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     Aun se debe verificar cuáles modelos no requieren autenticación</t>
       </text>
     </comment>
     <comment ref="AR3" authorId="4" shapeId="0" xr:uid="{8E52CB5C-C3C6-47DF-AA78-456FBD2A27B8}">
       <text>
-        <t>[Comentario encadenado]
-Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
-Comentario:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     Aun se debe verificar cuáles modelos no requieren autenticación</t>
       </text>
     </comment>
     <comment ref="AS3" authorId="5" shapeId="0" xr:uid="{D8B377C4-CD5D-4FB8-9F19-FC29777D0FE9}">
       <text>
-        <t>[Comentario encadenado]
-Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
-Comentario:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     Aun se debe verificar cuáles modelos no requieren autenticación</t>
       </text>
     </comment>
     <comment ref="BH3" authorId="6" shapeId="0" xr:uid="{3F36EED6-5C1A-45C8-8926-50127EF95CFC}">
       <text>
-        <t>[Comentario encadenado]
-Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
-Comentario:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     Aun se debe verificar cuáles modelos no requieren autenticación</t>
       </text>
     </comment>
     <comment ref="BJ3" authorId="7" shapeId="0" xr:uid="{9619351D-6ADA-480F-B156-F36BB2506159}">
       <text>
-        <t>[Comentario encadenado]
-Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
-Comentario:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     Aun se debe verificar cuáles modelos no requieren autenticación</t>
       </text>
     </comment>
@@ -159,7 +159,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="98">
   <si>
     <t>Backend</t>
   </si>
@@ -444,6 +444,15 @@
   </si>
   <si>
     <t>DomainTld</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>DomainRenewal</t>
+  </si>
+  <si>
+    <t>DomainPaymentMethod</t>
   </si>
 </sst>
 </file>
@@ -451,8 +460,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -727,7 +736,7 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -746,7 +755,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -809,6 +818,9 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -833,14 +845,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Millares" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="4">
     <dxf>
@@ -891,7 +900,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
     <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
@@ -1216,16 +1225,16 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:CP16"/>
+  <dimension ref="A1:CP18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="39.33203125" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="3.5546875" style="1" bestFit="1" customWidth="1"/>
@@ -1251,224 +1260,224 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:94" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="30"/>
-      <c r="B1" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="34"/>
-      <c r="R1" s="34"/>
-      <c r="S1" s="34"/>
-      <c r="T1" s="34"/>
-      <c r="U1" s="34"/>
-      <c r="V1" s="34"/>
-      <c r="W1" s="34"/>
-      <c r="X1" s="34"/>
-      <c r="Y1" s="34"/>
-      <c r="Z1" s="34"/>
-      <c r="AA1" s="34"/>
-      <c r="AB1" s="34"/>
-      <c r="AC1" s="34"/>
-      <c r="AD1" s="34"/>
-      <c r="AE1" s="34"/>
-      <c r="AF1" s="34"/>
-      <c r="AG1" s="34"/>
-      <c r="AH1" s="34"/>
-      <c r="AI1" s="34"/>
-      <c r="AJ1" s="34"/>
-      <c r="AK1" s="34"/>
-      <c r="AL1" s="34"/>
-      <c r="AM1" s="34"/>
-      <c r="AN1" s="34"/>
-      <c r="AO1" s="34"/>
-      <c r="AP1" s="34"/>
-      <c r="AQ1" s="34"/>
-      <c r="AR1" s="34"/>
-      <c r="AS1" s="34"/>
-      <c r="AT1" s="34"/>
-      <c r="AU1" s="34"/>
-      <c r="AV1" s="34"/>
-      <c r="AW1" s="34"/>
-      <c r="AX1" s="34"/>
-      <c r="AY1" s="34"/>
-      <c r="AZ1" s="34"/>
-      <c r="BA1" s="34"/>
-      <c r="BB1" s="34"/>
-      <c r="BC1" s="34"/>
-      <c r="BD1" s="34"/>
-      <c r="BE1" s="34"/>
-      <c r="BF1" s="34"/>
-      <c r="BG1" s="34"/>
-      <c r="BH1" s="34"/>
-      <c r="BI1" s="34"/>
-      <c r="BJ1" s="34"/>
-      <c r="BK1" s="34"/>
-      <c r="BL1" s="34"/>
-      <c r="BM1" s="34"/>
-      <c r="BN1" s="34"/>
-      <c r="BO1" s="34"/>
-      <c r="BP1" s="34"/>
-      <c r="BQ1" s="34"/>
-      <c r="BR1" s="34"/>
-      <c r="BS1" s="34"/>
-      <c r="BT1" s="34"/>
-      <c r="BU1" s="34"/>
-      <c r="BV1" s="34"/>
-      <c r="BW1" s="34"/>
-      <c r="BX1" s="34"/>
-      <c r="BY1" s="34"/>
-      <c r="BZ1" s="34"/>
-      <c r="CA1" s="34"/>
-      <c r="CB1" s="34"/>
-      <c r="CC1" s="34"/>
-      <c r="CD1" s="34"/>
-      <c r="CE1" s="34"/>
-      <c r="CF1" s="34"/>
-      <c r="CG1" s="34"/>
-      <c r="CH1" s="34"/>
-      <c r="CI1" s="34"/>
-      <c r="CJ1" s="34"/>
-      <c r="CK1" s="34"/>
-      <c r="CL1" s="34"/>
-      <c r="CM1" s="34"/>
+      <c r="A1" s="31"/>
+      <c r="B1" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
+      <c r="P1" s="35"/>
+      <c r="Q1" s="35"/>
+      <c r="R1" s="35"/>
+      <c r="S1" s="35"/>
+      <c r="T1" s="35"/>
+      <c r="U1" s="35"/>
+      <c r="V1" s="35"/>
+      <c r="W1" s="35"/>
+      <c r="X1" s="35"/>
+      <c r="Y1" s="35"/>
+      <c r="Z1" s="35"/>
+      <c r="AA1" s="35"/>
+      <c r="AB1" s="35"/>
+      <c r="AC1" s="35"/>
+      <c r="AD1" s="35"/>
+      <c r="AE1" s="35"/>
+      <c r="AF1" s="35"/>
+      <c r="AG1" s="35"/>
+      <c r="AH1" s="35"/>
+      <c r="AI1" s="35"/>
+      <c r="AJ1" s="35"/>
+      <c r="AK1" s="35"/>
+      <c r="AL1" s="35"/>
+      <c r="AM1" s="35"/>
+      <c r="AN1" s="35"/>
+      <c r="AO1" s="35"/>
+      <c r="AP1" s="35"/>
+      <c r="AQ1" s="35"/>
+      <c r="AR1" s="35"/>
+      <c r="AS1" s="35"/>
+      <c r="AT1" s="35"/>
+      <c r="AU1" s="35"/>
+      <c r="AV1" s="35"/>
+      <c r="AW1" s="35"/>
+      <c r="AX1" s="35"/>
+      <c r="AY1" s="35"/>
+      <c r="AZ1" s="35"/>
+      <c r="BA1" s="35"/>
+      <c r="BB1" s="35"/>
+      <c r="BC1" s="35"/>
+      <c r="BD1" s="35"/>
+      <c r="BE1" s="35"/>
+      <c r="BF1" s="35"/>
+      <c r="BG1" s="35"/>
+      <c r="BH1" s="35"/>
+      <c r="BI1" s="35"/>
+      <c r="BJ1" s="35"/>
+      <c r="BK1" s="35"/>
+      <c r="BL1" s="35"/>
+      <c r="BM1" s="35"/>
+      <c r="BN1" s="35"/>
+      <c r="BO1" s="35"/>
+      <c r="BP1" s="35"/>
+      <c r="BQ1" s="35"/>
+      <c r="BR1" s="35"/>
+      <c r="BS1" s="35"/>
+      <c r="BT1" s="35"/>
+      <c r="BU1" s="35"/>
+      <c r="BV1" s="35"/>
+      <c r="BW1" s="35"/>
+      <c r="BX1" s="35"/>
+      <c r="BY1" s="35"/>
+      <c r="BZ1" s="35"/>
+      <c r="CA1" s="35"/>
+      <c r="CB1" s="35"/>
+      <c r="CC1" s="35"/>
+      <c r="CD1" s="35"/>
+      <c r="CE1" s="35"/>
+      <c r="CF1" s="35"/>
+      <c r="CG1" s="35"/>
+      <c r="CH1" s="35"/>
+      <c r="CI1" s="35"/>
+      <c r="CJ1" s="35"/>
+      <c r="CK1" s="35"/>
+      <c r="CL1" s="35"/>
+      <c r="CM1" s="35"/>
       <c r="CO1" s="7" t="s">
         <v>75</v>
       </c>
       <c r="CP1" s="7">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:94" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="31"/>
-      <c r="B2" s="27" t="s">
+      <c r="A2" s="32"/>
+      <c r="B2" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="27" t="s">
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="P2" s="28"/>
-      <c r="Q2" s="28"/>
-      <c r="R2" s="28"/>
-      <c r="S2" s="28"/>
-      <c r="T2" s="28"/>
-      <c r="U2" s="28"/>
-      <c r="V2" s="29"/>
-      <c r="W2" s="27" t="s">
+      <c r="P2" s="29"/>
+      <c r="Q2" s="29"/>
+      <c r="R2" s="29"/>
+      <c r="S2" s="29"/>
+      <c r="T2" s="29"/>
+      <c r="U2" s="29"/>
+      <c r="V2" s="30"/>
+      <c r="W2" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="X2" s="28"/>
-      <c r="Y2" s="28"/>
-      <c r="Z2" s="28"/>
-      <c r="AA2" s="28"/>
-      <c r="AB2" s="29"/>
+      <c r="X2" s="29"/>
+      <c r="Y2" s="29"/>
+      <c r="Z2" s="29"/>
+      <c r="AA2" s="29"/>
+      <c r="AB2" s="30"/>
       <c r="AC2" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="AD2" s="27" t="s">
+      <c r="AD2" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="AE2" s="29"/>
-      <c r="AF2" s="27" t="s">
+      <c r="AE2" s="30"/>
+      <c r="AF2" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="AG2" s="28"/>
-      <c r="AH2" s="28"/>
-      <c r="AI2" s="28"/>
-      <c r="AJ2" s="28"/>
-      <c r="AK2" s="28"/>
-      <c r="AL2" s="28"/>
-      <c r="AM2" s="28"/>
-      <c r="AN2" s="28"/>
-      <c r="AO2" s="29"/>
-      <c r="AP2" s="27" t="s">
+      <c r="AG2" s="29"/>
+      <c r="AH2" s="29"/>
+      <c r="AI2" s="29"/>
+      <c r="AJ2" s="29"/>
+      <c r="AK2" s="29"/>
+      <c r="AL2" s="29"/>
+      <c r="AM2" s="29"/>
+      <c r="AN2" s="29"/>
+      <c r="AO2" s="30"/>
+      <c r="AP2" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="AQ2" s="28"/>
-      <c r="AR2" s="28"/>
-      <c r="AS2" s="28"/>
-      <c r="AT2" s="28"/>
-      <c r="AU2" s="28"/>
-      <c r="AV2" s="28"/>
-      <c r="AW2" s="28"/>
-      <c r="AX2" s="28"/>
-      <c r="AY2" s="29"/>
-      <c r="AZ2" s="27" t="s">
+      <c r="AQ2" s="29"/>
+      <c r="AR2" s="29"/>
+      <c r="AS2" s="29"/>
+      <c r="AT2" s="29"/>
+      <c r="AU2" s="29"/>
+      <c r="AV2" s="29"/>
+      <c r="AW2" s="29"/>
+      <c r="AX2" s="29"/>
+      <c r="AY2" s="30"/>
+      <c r="AZ2" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="BA2" s="28"/>
-      <c r="BB2" s="28"/>
-      <c r="BC2" s="28"/>
-      <c r="BD2" s="28"/>
-      <c r="BE2" s="29"/>
+      <c r="BA2" s="29"/>
+      <c r="BB2" s="29"/>
+      <c r="BC2" s="29"/>
+      <c r="BD2" s="29"/>
+      <c r="BE2" s="30"/>
       <c r="BF2" s="18" t="s">
         <v>83</v>
       </c>
       <c r="BG2" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="BH2" s="27" t="s">
+      <c r="BH2" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="BI2" s="28"/>
-      <c r="BJ2" s="28"/>
-      <c r="BK2" s="28"/>
-      <c r="BL2" s="28"/>
-      <c r="BM2" s="28"/>
-      <c r="BN2" s="28"/>
-      <c r="BO2" s="28"/>
-      <c r="BP2" s="29"/>
+      <c r="BI2" s="29"/>
+      <c r="BJ2" s="29"/>
+      <c r="BK2" s="29"/>
+      <c r="BL2" s="29"/>
+      <c r="BM2" s="29"/>
+      <c r="BN2" s="29"/>
+      <c r="BO2" s="29"/>
+      <c r="BP2" s="30"/>
       <c r="BQ2" s="21"/>
-      <c r="BR2" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="BS2" s="28"/>
-      <c r="BT2" s="28"/>
-      <c r="BU2" s="28"/>
-      <c r="BV2" s="28"/>
-      <c r="BW2" s="28"/>
-      <c r="BX2" s="28"/>
-      <c r="BY2" s="28"/>
-      <c r="BZ2" s="28"/>
-      <c r="CA2" s="28"/>
-      <c r="CB2" s="28"/>
-      <c r="CC2" s="29"/>
-      <c r="CD2" s="27" t="s">
+      <c r="BR2" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="BS2" s="29"/>
+      <c r="BT2" s="29"/>
+      <c r="BU2" s="29"/>
+      <c r="BV2" s="29"/>
+      <c r="BW2" s="29"/>
+      <c r="BX2" s="29"/>
+      <c r="BY2" s="29"/>
+      <c r="BZ2" s="29"/>
+      <c r="CA2" s="29"/>
+      <c r="CB2" s="29"/>
+      <c r="CC2" s="30"/>
+      <c r="CD2" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="CE2" s="28"/>
-      <c r="CF2" s="28"/>
-      <c r="CG2" s="28"/>
-      <c r="CH2" s="28"/>
-      <c r="CI2" s="28"/>
-      <c r="CJ2" s="28"/>
-      <c r="CK2" s="28"/>
-      <c r="CL2" s="28"/>
-      <c r="CM2" s="29"/>
+      <c r="CE2" s="29"/>
+      <c r="CF2" s="29"/>
+      <c r="CG2" s="29"/>
+      <c r="CH2" s="29"/>
+      <c r="CI2" s="29"/>
+      <c r="CJ2" s="29"/>
+      <c r="CK2" s="29"/>
+      <c r="CL2" s="29"/>
+      <c r="CM2" s="30"/>
       <c r="CO2" s="7" t="s">
         <v>76</v>
       </c>
@@ -1476,8 +1485,8 @@
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:94" s="4" customFormat="1" ht="94.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="32"/>
+    <row r="3" spans="1:94" s="4" customFormat="1" ht="95.4" x14ac:dyDescent="0.3">
+      <c r="A3" s="33"/>
       <c r="B3" s="13" t="s">
         <v>12</v>
       </c>
@@ -1755,16 +1764,20 @@
         <v>68</v>
       </c>
       <c r="CP3" s="8">
-        <f>SUM(CN14,CN16)*100/(CP2*CP1) * 0.01</f>
-        <v>0</v>
+        <f>SUM(CN16,CN18)*100/(CP2*CP1) * 0.01</f>
+        <v>2.2222222222222223E-2</v>
       </c>
     </row>
     <row r="4" spans="1:94" x14ac:dyDescent="0.3">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="9"/>
+      <c r="B4" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>95</v>
+      </c>
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
       <c r="F4" s="12"/>
@@ -1855,19 +1868,23 @@
       <c r="CM4" s="15"/>
       <c r="CN4" s="1">
         <f>COUNTIF(B4:CM4,"")</f>
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="CO4" s="3">
         <f>CN4/$CP$2</f>
-        <v>1</v>
+        <v>0.97777777777777775</v>
       </c>
     </row>
     <row r="5" spans="1:94" x14ac:dyDescent="0.3">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="9"/>
+      <c r="B5" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>95</v>
+      </c>
       <c r="D5" s="12"/>
       <c r="E5" s="12"/>
       <c r="F5" s="12"/>
@@ -1957,20 +1974,24 @@
       <c r="CL5" s="15"/>
       <c r="CM5" s="15"/>
       <c r="CN5" s="1">
-        <f t="shared" ref="CN5:CN11" si="0">COUNTIF(B5:CM5,"")</f>
-        <v>90</v>
+        <f t="shared" ref="CN5:CN13" si="0">COUNTIF(B5:CM5,"")</f>
+        <v>88</v>
       </c>
       <c r="CO5" s="3">
-        <f t="shared" ref="CO5:CO11" si="1">CN5/$CP$2</f>
-        <v>1</v>
+        <f t="shared" ref="CO5:CO13" si="1">CN5/$CP$2</f>
+        <v>0.97777777777777775</v>
       </c>
     </row>
     <row r="6" spans="1:94" x14ac:dyDescent="0.3">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="9"/>
+      <c r="B6" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>95</v>
+      </c>
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
       <c r="F6" s="12"/>
@@ -2061,19 +2082,23 @@
       <c r="CM6" s="15"/>
       <c r="CN6" s="1">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="CO6" s="3">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.97777777777777775</v>
       </c>
     </row>
     <row r="7" spans="1:94" x14ac:dyDescent="0.3">
-      <c r="A7" s="35" t="s">
+      <c r="A7" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="9"/>
+      <c r="B7" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>95</v>
+      </c>
       <c r="D7" s="12"/>
       <c r="E7" s="12"/>
       <c r="F7" s="12"/>
@@ -2164,19 +2189,23 @@
       <c r="CM7" s="15"/>
       <c r="CN7" s="1">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="CO7" s="3">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.97777777777777775</v>
       </c>
     </row>
     <row r="8" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A8" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="9"/>
+      <c r="B8" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>95</v>
+      </c>
       <c r="D8" s="12"/>
       <c r="E8" s="12"/>
       <c r="F8" s="12"/>
@@ -2267,19 +2296,23 @@
       <c r="CM8" s="15"/>
       <c r="CN8" s="1">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="CO8" s="3">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.97777777777777775</v>
       </c>
     </row>
     <row r="9" spans="1:94" x14ac:dyDescent="0.3">
-      <c r="A9" s="35" t="s">
+      <c r="A9" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="9"/>
+      <c r="B9" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>95</v>
+      </c>
       <c r="D9" s="12"/>
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
@@ -2370,19 +2403,23 @@
       <c r="CM9" s="15"/>
       <c r="CN9" s="1">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="CO9" s="3">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.97777777777777775</v>
       </c>
     </row>
     <row r="10" spans="1:94" x14ac:dyDescent="0.3">
-      <c r="A10" s="35" t="s">
+      <c r="A10" s="27" t="s">
         <v>93</v>
       </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="9"/>
+      <c r="B10" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>95</v>
+      </c>
       <c r="D10" s="12"/>
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
@@ -2473,19 +2510,23 @@
       <c r="CM10" s="15"/>
       <c r="CN10" s="1">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="CO10" s="3">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.97777777777777775</v>
       </c>
     </row>
     <row r="11" spans="1:94" x14ac:dyDescent="0.3">
-      <c r="A11" s="35" t="s">
-        <v>94</v>
-      </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="9"/>
+      <c r="A11" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>95</v>
+      </c>
       <c r="D11" s="12"/>
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
@@ -2576,1491 +2617,1705 @@
       <c r="CM11" s="15"/>
       <c r="CN11" s="1">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="CO11" s="3">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.97777777777777775</v>
       </c>
     </row>
     <row r="12" spans="1:94" x14ac:dyDescent="0.3">
-      <c r="CN12" s="6"/>
+      <c r="A12" s="27" t="s">
+        <v>97</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="12"/>
+      <c r="Q12" s="12"/>
+      <c r="R12" s="12"/>
+      <c r="S12" s="12"/>
+      <c r="T12" s="12"/>
+      <c r="U12" s="12"/>
+      <c r="V12" s="16"/>
+      <c r="W12" s="17"/>
+      <c r="X12" s="12"/>
+      <c r="Y12" s="12"/>
+      <c r="Z12" s="12"/>
+      <c r="AA12" s="12"/>
+      <c r="AB12" s="16"/>
+      <c r="AC12" s="25"/>
+      <c r="AD12" s="17"/>
+      <c r="AE12" s="16"/>
+      <c r="AF12" s="17"/>
+      <c r="AG12" s="12"/>
+      <c r="AH12" s="12"/>
+      <c r="AI12" s="12"/>
+      <c r="AJ12" s="12"/>
+      <c r="AK12" s="12"/>
+      <c r="AL12" s="12"/>
+      <c r="AM12" s="12"/>
+      <c r="AN12" s="12"/>
+      <c r="AO12" s="16"/>
+      <c r="AP12" s="17"/>
+      <c r="AQ12" s="12"/>
+      <c r="AR12" s="12"/>
+      <c r="AS12" s="12"/>
+      <c r="AT12" s="9"/>
+      <c r="AU12" s="9"/>
+      <c r="AV12" s="12"/>
+      <c r="AW12" s="12"/>
+      <c r="AX12" s="12"/>
+      <c r="AY12" s="16"/>
+      <c r="AZ12" s="17"/>
+      <c r="BA12" s="12"/>
+      <c r="BB12" s="12"/>
+      <c r="BC12" s="12"/>
+      <c r="BD12" s="12"/>
+      <c r="BE12" s="16"/>
+      <c r="BF12" s="20"/>
+      <c r="BG12" s="20"/>
+      <c r="BH12" s="17"/>
+      <c r="BI12" s="12"/>
+      <c r="BJ12" s="12"/>
+      <c r="BK12" s="12"/>
+      <c r="BL12" s="12"/>
+      <c r="BM12" s="12"/>
+      <c r="BN12" s="12"/>
+      <c r="BO12" s="12"/>
+      <c r="BP12" s="16"/>
+      <c r="BQ12" s="20"/>
+      <c r="BR12" s="15"/>
+      <c r="BS12" s="15"/>
+      <c r="BT12" s="15"/>
+      <c r="BU12" s="15"/>
+      <c r="BV12" s="15"/>
+      <c r="BW12" s="15"/>
+      <c r="BX12" s="15"/>
+      <c r="BY12" s="15"/>
+      <c r="BZ12" s="15"/>
+      <c r="CA12" s="15"/>
+      <c r="CB12" s="15"/>
+      <c r="CC12" s="15"/>
+      <c r="CD12" s="15"/>
+      <c r="CE12" s="15"/>
+      <c r="CF12" s="15"/>
+      <c r="CG12" s="15"/>
+      <c r="CH12" s="15"/>
+      <c r="CI12" s="15"/>
+      <c r="CJ12" s="15"/>
+      <c r="CK12" s="15"/>
+      <c r="CL12" s="15"/>
+      <c r="CM12" s="15"/>
+      <c r="CN12" s="1">
+        <f t="shared" si="0"/>
+        <v>88</v>
+      </c>
+      <c r="CO12" s="3">
+        <f t="shared" si="1"/>
+        <v>0.97777777777777775</v>
+      </c>
     </row>
     <row r="13" spans="1:94" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="B13" s="1">
-        <f>COUNTIF(B4:B11,"")</f>
-        <v>8</v>
-      </c>
-      <c r="C13" s="1">
-        <f>COUNTIF(C4:C11,"")</f>
-        <v>8</v>
-      </c>
-      <c r="D13" s="1">
-        <f>COUNTIF(D4:D11,"")</f>
-        <v>8</v>
-      </c>
-      <c r="E13" s="1">
-        <f>COUNTIF(E4:E11,"")</f>
-        <v>8</v>
-      </c>
-      <c r="F13" s="1">
-        <f>COUNTIF(F4:F11,"")</f>
-        <v>8</v>
-      </c>
-      <c r="G13" s="1">
-        <f>COUNTIF(G4:G11,"")</f>
-        <v>8</v>
-      </c>
-      <c r="H13" s="1">
-        <f>COUNTIF(H4:H11,"")</f>
-        <v>8</v>
-      </c>
-      <c r="I13" s="1">
-        <f>COUNTIF(I4:I11,"")</f>
-        <v>8</v>
-      </c>
-      <c r="J13" s="1">
-        <f>COUNTIF(J4:J11,"")</f>
-        <v>8</v>
-      </c>
-      <c r="K13" s="1">
-        <f>COUNTIF(K4:K11,"")</f>
-        <v>8</v>
-      </c>
-      <c r="L13" s="1">
-        <f>COUNTIF(L4:L11,"")</f>
-        <v>8</v>
-      </c>
-      <c r="M13" s="1">
-        <f>COUNTIF(M4:M11,"")</f>
-        <v>8</v>
-      </c>
-      <c r="N13" s="1">
-        <f>COUNTIF(N4:N11,"")</f>
-        <v>8</v>
-      </c>
-      <c r="O13" s="1">
-        <f>COUNTIF(O4:O11,"")</f>
-        <v>8</v>
-      </c>
-      <c r="P13" s="1">
-        <f>COUNTIF(P4:P11,"")</f>
-        <v>8</v>
-      </c>
-      <c r="Q13" s="1">
-        <f>COUNTIF(Q4:Q11,"")</f>
-        <v>8</v>
-      </c>
-      <c r="R13" s="1">
-        <f>COUNTIF(R4:R11,"")</f>
-        <v>8</v>
-      </c>
-      <c r="S13" s="1">
-        <f>COUNTIF(S4:S11,"")</f>
-        <v>8</v>
-      </c>
-      <c r="T13" s="1">
-        <f>COUNTIF(T4:T11,"")</f>
-        <v>8</v>
-      </c>
-      <c r="U13" s="1">
-        <f>COUNTIF(U4:U11,"")</f>
-        <v>8</v>
-      </c>
-      <c r="V13" s="1">
-        <f>COUNTIF(V4:V11,"")</f>
-        <v>8</v>
-      </c>
-      <c r="W13" s="1">
-        <f>COUNTIF(W4:W11,"")</f>
-        <v>8</v>
-      </c>
-      <c r="X13" s="1">
-        <f>COUNTIF(X4:X11,"")</f>
-        <v>8</v>
-      </c>
-      <c r="Y13" s="1">
-        <f>COUNTIF(Y4:Y11,"")</f>
-        <v>8</v>
-      </c>
-      <c r="Z13" s="1">
-        <f>COUNTIF(Z4:Z11,"")</f>
-        <v>8</v>
-      </c>
-      <c r="AA13" s="1">
-        <f>COUNTIF(AA4:AA11,"")</f>
-        <v>8</v>
-      </c>
-      <c r="AB13" s="1">
-        <f>COUNTIF(AB4:AB11,"")</f>
-        <v>8</v>
-      </c>
-      <c r="AC13" s="1">
-        <f>COUNTIF(AC4:AC11,"")</f>
-        <v>8</v>
-      </c>
-      <c r="AD13" s="1">
-        <f>COUNTIF(AD4:AD11,"")</f>
-        <v>8</v>
-      </c>
-      <c r="AE13" s="1">
-        <f>COUNTIF(AE4:AE11,"")</f>
-        <v>8</v>
-      </c>
-      <c r="AF13" s="1">
-        <f>COUNTIF(AF4:AF11,"")</f>
-        <v>8</v>
-      </c>
-      <c r="AG13" s="1">
-        <f>COUNTIF(AG4:AG11,"")</f>
-        <v>8</v>
-      </c>
-      <c r="AH13" s="1">
-        <f>COUNTIF(AH4:AH11,"")</f>
-        <v>8</v>
-      </c>
-      <c r="AI13" s="1">
-        <f>COUNTIF(AI4:AI11,"")</f>
-        <v>8</v>
-      </c>
-      <c r="AJ13" s="1">
-        <f>COUNTIF(AJ4:AJ11,"")</f>
-        <v>8</v>
-      </c>
-      <c r="AK13" s="1">
-        <f>COUNTIF(AK4:AK11,"")</f>
-        <v>8</v>
-      </c>
-      <c r="AL13" s="1">
-        <f>COUNTIF(AL4:AL11,"")</f>
-        <v>8</v>
-      </c>
-      <c r="AM13" s="1">
-        <f>COUNTIF(AM4:AM11,"")</f>
-        <v>8</v>
-      </c>
-      <c r="AN13" s="1">
-        <f>COUNTIF(AN4:AN11,"")</f>
-        <v>8</v>
-      </c>
-      <c r="AO13" s="1">
-        <f>COUNTIF(AO4:AO11,"")</f>
-        <v>8</v>
-      </c>
-      <c r="AP13" s="1">
-        <f>COUNTIF(AP4:AP11,"")</f>
-        <v>8</v>
-      </c>
-      <c r="AQ13" s="1">
-        <f>COUNTIF(AQ4:AQ11,"")</f>
-        <v>8</v>
-      </c>
-      <c r="AR13" s="1">
-        <f>COUNTIF(AR4:AR11,"")</f>
-        <v>8</v>
-      </c>
-      <c r="AS13" s="1">
-        <f>COUNTIF(AS4:AS11,"")</f>
-        <v>8</v>
-      </c>
-      <c r="AT13" s="1">
-        <f>COUNTIF(AT4:AT11,"")</f>
-        <v>8</v>
-      </c>
-      <c r="AU13" s="1">
-        <f>COUNTIF(AU4:AU11,"")</f>
-        <v>8</v>
-      </c>
-      <c r="AV13" s="1">
-        <f>COUNTIF(AV4:AV11,"")</f>
-        <v>8</v>
-      </c>
-      <c r="AW13" s="1">
-        <f>COUNTIF(AW4:AW11,"")</f>
-        <v>8</v>
-      </c>
-      <c r="AX13" s="1">
-        <f>COUNTIF(AX4:AX11,"")</f>
-        <v>8</v>
-      </c>
-      <c r="AY13" s="1">
-        <f>COUNTIF(AY4:AY11,"")</f>
-        <v>8</v>
-      </c>
-      <c r="AZ13" s="1">
-        <f>COUNTIF(AZ4:AZ11,"")</f>
-        <v>8</v>
-      </c>
-      <c r="BA13" s="1">
-        <f>COUNTIF(BA4:BA11,"")</f>
-        <v>8</v>
-      </c>
-      <c r="BB13" s="1">
-        <f>COUNTIF(BB4:BB11,"")</f>
-        <v>8</v>
-      </c>
-      <c r="BC13" s="1">
-        <f>COUNTIF(BC4:BC11,"")</f>
-        <v>8</v>
-      </c>
-      <c r="BD13" s="1">
-        <f>COUNTIF(BD4:BD11,"")</f>
-        <v>8</v>
-      </c>
-      <c r="BE13" s="1">
-        <f>COUNTIF(BE4:BE11,"")</f>
-        <v>8</v>
-      </c>
-      <c r="BF13" s="1">
-        <f>COUNTIF(BF4:BF11,"")</f>
-        <v>8</v>
-      </c>
-      <c r="BG13" s="1">
-        <f>COUNTIF(BG4:BG11,"")</f>
-        <v>8</v>
-      </c>
-      <c r="BH13" s="1">
-        <f>COUNTIF(BH4:BH11,"")</f>
-        <v>8</v>
-      </c>
-      <c r="BI13" s="1">
-        <f>COUNTIF(BI4:BI11,"")</f>
-        <v>8</v>
-      </c>
-      <c r="BJ13" s="1">
-        <f>COUNTIF(BJ4:BJ11,"")</f>
-        <v>8</v>
-      </c>
-      <c r="BK13" s="1">
-        <f>COUNTIF(BK4:BK11,"")</f>
-        <v>8</v>
-      </c>
-      <c r="BL13" s="1">
-        <f>COUNTIF(BL4:BL11,"")</f>
-        <v>8</v>
-      </c>
-      <c r="BM13" s="1">
-        <f>COUNTIF(BM4:BM11,"")</f>
-        <v>8</v>
-      </c>
-      <c r="BN13" s="1">
-        <f>COUNTIF(BN4:BN11,"")</f>
-        <v>8</v>
-      </c>
-      <c r="BO13" s="1">
-        <f>COUNTIF(BO4:BO11,"")</f>
-        <v>8</v>
-      </c>
-      <c r="BP13" s="1">
-        <f>COUNTIF(BP4:BP11,"")</f>
-        <v>8</v>
-      </c>
-      <c r="BQ13" s="1">
-        <f>COUNTIF(BQ4:BQ11,"")</f>
-        <v>8</v>
-      </c>
-      <c r="BR13" s="1">
-        <f>COUNTIF(BR4:BR11,"")</f>
-        <v>8</v>
-      </c>
-      <c r="BS13" s="1">
-        <f>COUNTIF(BS4:BS11,"")</f>
-        <v>8</v>
-      </c>
-      <c r="BT13" s="1">
-        <f>COUNTIF(BT4:BT11,"")</f>
-        <v>8</v>
-      </c>
-      <c r="BU13" s="1">
-        <f>COUNTIF(BU4:BU11,"")</f>
-        <v>8</v>
-      </c>
-      <c r="BV13" s="1">
-        <f>COUNTIF(BV4:BV11,"")</f>
-        <v>8</v>
-      </c>
-      <c r="BW13" s="1">
-        <f>COUNTIF(BW4:BW11,"")</f>
-        <v>8</v>
-      </c>
-      <c r="BX13" s="1">
-        <f>COUNTIF(BX4:BX11,"")</f>
-        <v>8</v>
-      </c>
-      <c r="BY13" s="1">
-        <f>COUNTIF(BY4:BY11,"")</f>
-        <v>8</v>
-      </c>
-      <c r="BZ13" s="1">
-        <f>COUNTIF(BZ4:BZ11,"")</f>
-        <v>8</v>
-      </c>
-      <c r="CA13" s="1">
-        <f>COUNTIF(CA4:CA11,"")</f>
-        <v>8</v>
-      </c>
-      <c r="CB13" s="1">
-        <f>COUNTIF(CB4:CB11,"")</f>
-        <v>8</v>
-      </c>
-      <c r="CC13" s="1">
-        <f>COUNTIF(CC4:CC11,"")</f>
-        <v>8</v>
-      </c>
-      <c r="CD13" s="1">
-        <f>COUNTIF(CD4:CD11,"")</f>
-        <v>8</v>
-      </c>
-      <c r="CE13" s="1">
-        <f>COUNTIF(CE4:CE11,"")</f>
-        <v>8</v>
-      </c>
-      <c r="CF13" s="1">
-        <f>COUNTIF(CF4:CF11,"")</f>
-        <v>8</v>
-      </c>
-      <c r="CG13" s="1">
-        <f>COUNTIF(CG4:CG11,"")</f>
-        <v>8</v>
-      </c>
-      <c r="CH13" s="1">
-        <f>COUNTIF(CH4:CH11,"")</f>
-        <v>8</v>
-      </c>
-      <c r="CI13" s="1">
-        <f>COUNTIF(CI4:CI11,"")</f>
-        <v>8</v>
-      </c>
-      <c r="CJ13" s="1">
-        <f>COUNTIF(CJ4:CJ11,"")</f>
-        <v>8</v>
-      </c>
-      <c r="CK13" s="1">
-        <f>COUNTIF(CK4:CK11,"")</f>
-        <v>8</v>
-      </c>
-      <c r="CL13" s="1">
-        <f>COUNTIF(CL4:CL11,"")</f>
-        <v>8</v>
-      </c>
-      <c r="CM13" s="1">
-        <f>COUNTIF(CM4:CM11,"")</f>
-        <v>8</v>
-      </c>
-      <c r="CN13" s="6">
-        <f>SUM(B13:CM13)</f>
-        <v>720</v>
-      </c>
-      <c r="CO13" s="2"/>
+      <c r="A13" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="12"/>
+      <c r="Q13" s="12"/>
+      <c r="R13" s="12"/>
+      <c r="S13" s="12"/>
+      <c r="T13" s="12"/>
+      <c r="U13" s="12"/>
+      <c r="V13" s="16"/>
+      <c r="W13" s="17"/>
+      <c r="X13" s="12"/>
+      <c r="Y13" s="12"/>
+      <c r="Z13" s="12"/>
+      <c r="AA13" s="12"/>
+      <c r="AB13" s="16"/>
+      <c r="AC13" s="25"/>
+      <c r="AD13" s="17"/>
+      <c r="AE13" s="16"/>
+      <c r="AF13" s="17"/>
+      <c r="AG13" s="12"/>
+      <c r="AH13" s="12"/>
+      <c r="AI13" s="12"/>
+      <c r="AJ13" s="12"/>
+      <c r="AK13" s="12"/>
+      <c r="AL13" s="12"/>
+      <c r="AM13" s="12"/>
+      <c r="AN13" s="12"/>
+      <c r="AO13" s="16"/>
+      <c r="AP13" s="17"/>
+      <c r="AQ13" s="12"/>
+      <c r="AR13" s="12"/>
+      <c r="AS13" s="12"/>
+      <c r="AT13" s="9"/>
+      <c r="AU13" s="9"/>
+      <c r="AV13" s="12"/>
+      <c r="AW13" s="12"/>
+      <c r="AX13" s="12"/>
+      <c r="AY13" s="16"/>
+      <c r="AZ13" s="17"/>
+      <c r="BA13" s="12"/>
+      <c r="BB13" s="12"/>
+      <c r="BC13" s="12"/>
+      <c r="BD13" s="12"/>
+      <c r="BE13" s="16"/>
+      <c r="BF13" s="20"/>
+      <c r="BG13" s="20"/>
+      <c r="BH13" s="17"/>
+      <c r="BI13" s="12"/>
+      <c r="BJ13" s="12"/>
+      <c r="BK13" s="12"/>
+      <c r="BL13" s="12"/>
+      <c r="BM13" s="12"/>
+      <c r="BN13" s="12"/>
+      <c r="BO13" s="12"/>
+      <c r="BP13" s="16"/>
+      <c r="BQ13" s="20"/>
+      <c r="BR13" s="15"/>
+      <c r="BS13" s="15"/>
+      <c r="BT13" s="15"/>
+      <c r="BU13" s="15"/>
+      <c r="BV13" s="15"/>
+      <c r="BW13" s="15"/>
+      <c r="BX13" s="15"/>
+      <c r="BY13" s="15"/>
+      <c r="BZ13" s="15"/>
+      <c r="CA13" s="15"/>
+      <c r="CB13" s="15"/>
+      <c r="CC13" s="15"/>
+      <c r="CD13" s="15"/>
+      <c r="CE13" s="15"/>
+      <c r="CF13" s="15"/>
+      <c r="CG13" s="15"/>
+      <c r="CH13" s="15"/>
+      <c r="CI13" s="15"/>
+      <c r="CJ13" s="15"/>
+      <c r="CK13" s="15"/>
+      <c r="CL13" s="15"/>
+      <c r="CM13" s="15"/>
+      <c r="CN13" s="1">
+        <f t="shared" si="0"/>
+        <v>88</v>
+      </c>
+      <c r="CO13" s="3">
+        <f t="shared" si="1"/>
+        <v>0.97777777777777775</v>
+      </c>
     </row>
     <row r="14" spans="1:94" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="B14" s="1">
-        <f>COUNTIF(B4:B11,"x")</f>
-        <v>0</v>
-      </c>
-      <c r="C14" s="1">
-        <f>COUNTIF(C4:C11,"x")</f>
-        <v>0</v>
-      </c>
-      <c r="D14" s="1">
-        <f>COUNTIF(D4:D11,"x")</f>
-        <v>0</v>
-      </c>
-      <c r="E14" s="1">
-        <f>COUNTIF(E4:E11,"x")</f>
-        <v>0</v>
-      </c>
-      <c r="F14" s="1">
-        <f>COUNTIF(F4:F11,"x")</f>
-        <v>0</v>
-      </c>
-      <c r="G14" s="1">
-        <f>COUNTIF(G4:G11,"x")</f>
-        <v>0</v>
-      </c>
-      <c r="H14" s="1">
-        <f>COUNTIF(H4:H11,"x")</f>
-        <v>0</v>
-      </c>
-      <c r="I14" s="1">
-        <f>COUNTIF(I4:I11,"x")</f>
-        <v>0</v>
-      </c>
-      <c r="J14" s="1">
-        <f>COUNTIF(J4:J11,"x")</f>
-        <v>0</v>
-      </c>
-      <c r="K14" s="1">
-        <f>COUNTIF(K4:K11,"x")</f>
-        <v>0</v>
-      </c>
-      <c r="L14" s="1">
-        <f>COUNTIF(L4:L11,"x")</f>
-        <v>0</v>
-      </c>
-      <c r="M14" s="1">
-        <f>COUNTIF(M4:M11,"x")</f>
-        <v>0</v>
-      </c>
-      <c r="N14" s="1">
-        <f>COUNTIF(N4:N11,"x")</f>
-        <v>0</v>
-      </c>
-      <c r="O14" s="1">
-        <f>COUNTIF(O4:O11,"x")</f>
-        <v>0</v>
-      </c>
-      <c r="P14" s="1">
-        <f>COUNTIF(P4:P11,"x")</f>
-        <v>0</v>
-      </c>
-      <c r="Q14" s="1">
-        <f>COUNTIF(Q4:Q11,"x")</f>
-        <v>0</v>
-      </c>
-      <c r="R14" s="1">
-        <f>COUNTIF(R4:R11,"x")</f>
-        <v>0</v>
-      </c>
-      <c r="S14" s="1">
-        <f>COUNTIF(S4:S11,"x")</f>
-        <v>0</v>
-      </c>
-      <c r="T14" s="1">
-        <f>COUNTIF(T4:T11,"x")</f>
-        <v>0</v>
-      </c>
-      <c r="U14" s="1">
-        <f>COUNTIF(U4:U11,"x")</f>
-        <v>0</v>
-      </c>
-      <c r="V14" s="1">
-        <f>COUNTIF(V4:V11,"x")</f>
-        <v>0</v>
-      </c>
-      <c r="W14" s="1">
-        <f>COUNTIF(W4:W11,"x")</f>
-        <v>0</v>
-      </c>
-      <c r="X14" s="1">
-        <f>COUNTIF(X4:X11,"x")</f>
-        <v>0</v>
-      </c>
-      <c r="Y14" s="1">
-        <f>COUNTIF(Y4:Y11,"x")</f>
-        <v>0</v>
-      </c>
-      <c r="Z14" s="1">
-        <f>COUNTIF(Z4:Z11,"x")</f>
-        <v>0</v>
-      </c>
-      <c r="AA14" s="1">
-        <f>COUNTIF(AA4:AA11,"x")</f>
-        <v>0</v>
-      </c>
-      <c r="AB14" s="1">
-        <f>COUNTIF(AB4:AB11,"x")</f>
-        <v>0</v>
-      </c>
-      <c r="AC14" s="1">
-        <f>COUNTIF(AC4:AC11,"x")</f>
-        <v>0</v>
-      </c>
-      <c r="AD14" s="1">
-        <f>COUNTIF(AD4:AD11,"x")</f>
-        <v>0</v>
-      </c>
-      <c r="AE14" s="1">
-        <f>COUNTIF(AE4:AE11,"x")</f>
-        <v>0</v>
-      </c>
-      <c r="AF14" s="1">
-        <f>COUNTIF(AF4:AF11,"x")</f>
-        <v>0</v>
-      </c>
-      <c r="AG14" s="1">
-        <f>COUNTIF(AG4:AG11,"x")</f>
-        <v>0</v>
-      </c>
-      <c r="AH14" s="1">
-        <f>COUNTIF(AH4:AH11,"x")</f>
-        <v>0</v>
-      </c>
-      <c r="AI14" s="1">
-        <f>COUNTIF(AI4:AI11,"x")</f>
-        <v>0</v>
-      </c>
-      <c r="AJ14" s="1">
-        <f>COUNTIF(AJ4:AJ11,"x")</f>
-        <v>0</v>
-      </c>
-      <c r="AK14" s="1">
-        <f>COUNTIF(AK4:AK11,"x")</f>
-        <v>0</v>
-      </c>
-      <c r="AL14" s="1">
-        <f>COUNTIF(AL4:AL11,"x")</f>
-        <v>0</v>
-      </c>
-      <c r="AM14" s="1">
-        <f>COUNTIF(AM4:AM11,"x")</f>
-        <v>0</v>
-      </c>
-      <c r="AN14" s="1">
-        <f>COUNTIF(AN4:AN11,"x")</f>
-        <v>0</v>
-      </c>
-      <c r="AO14" s="1">
-        <f>COUNTIF(AO4:AO11,"x")</f>
-        <v>0</v>
-      </c>
-      <c r="AP14" s="1">
-        <f>COUNTIF(AP4:AP11,"x")</f>
-        <v>0</v>
-      </c>
-      <c r="AQ14" s="1">
-        <f>COUNTIF(AQ4:AQ11,"x")</f>
-        <v>0</v>
-      </c>
-      <c r="AR14" s="1">
-        <f>COUNTIF(AR4:AR11,"x")</f>
-        <v>0</v>
-      </c>
-      <c r="AS14" s="1">
-        <f>COUNTIF(AS4:AS11,"x")</f>
-        <v>0</v>
-      </c>
-      <c r="AT14" s="1">
-        <f>COUNTIF(AT4:AT11,"x")</f>
-        <v>0</v>
-      </c>
-      <c r="AU14" s="1">
-        <f>COUNTIF(AU4:AU11,"x")</f>
-        <v>0</v>
-      </c>
-      <c r="AV14" s="1">
-        <f>COUNTIF(AV4:AV11,"x")</f>
-        <v>0</v>
-      </c>
-      <c r="AW14" s="1">
-        <f>COUNTIF(AW4:AW11,"x")</f>
-        <v>0</v>
-      </c>
-      <c r="AX14" s="1">
-        <f>COUNTIF(AX4:AX11,"x")</f>
-        <v>0</v>
-      </c>
-      <c r="AY14" s="1">
-        <f>COUNTIF(AY4:AY11,"x")</f>
-        <v>0</v>
-      </c>
-      <c r="AZ14" s="1">
-        <f>COUNTIF(AZ4:AZ11,"x")</f>
-        <v>0</v>
-      </c>
-      <c r="BA14" s="1">
-        <f>COUNTIF(BA4:BA11,"x")</f>
-        <v>0</v>
-      </c>
-      <c r="BB14" s="1">
-        <f>COUNTIF(BB4:BB11,"x")</f>
-        <v>0</v>
-      </c>
-      <c r="BC14" s="1">
-        <f>COUNTIF(BC4:BC11,"x")</f>
-        <v>0</v>
-      </c>
-      <c r="BD14" s="1">
-        <f>COUNTIF(BD4:BD11,"x")</f>
-        <v>0</v>
-      </c>
-      <c r="BE14" s="1">
-        <f>COUNTIF(BE4:BE11,"x")</f>
-        <v>0</v>
-      </c>
-      <c r="BF14" s="1">
-        <f>COUNTIF(BF4:BF11,"x")</f>
-        <v>0</v>
-      </c>
-      <c r="BG14" s="1">
-        <f>COUNTIF(BG4:BG11,"x")</f>
-        <v>0</v>
-      </c>
-      <c r="BH14" s="1">
-        <f>COUNTIF(BH4:BH11,"x")</f>
-        <v>0</v>
-      </c>
-      <c r="BI14" s="1">
-        <f>COUNTIF(BI4:BI11,"x")</f>
-        <v>0</v>
-      </c>
-      <c r="BJ14" s="1">
-        <f>COUNTIF(BJ4:BJ11,"x")</f>
-        <v>0</v>
-      </c>
-      <c r="BK14" s="1">
-        <f>COUNTIF(BK4:BK11,"x")</f>
-        <v>0</v>
-      </c>
-      <c r="BL14" s="1">
-        <f>COUNTIF(BL4:BL11,"x")</f>
-        <v>0</v>
-      </c>
-      <c r="BM14" s="1">
-        <f>COUNTIF(BM4:BM11,"x")</f>
-        <v>0</v>
-      </c>
-      <c r="BN14" s="1">
-        <f>COUNTIF(BN4:BN11,"x")</f>
-        <v>0</v>
-      </c>
-      <c r="BO14" s="1">
-        <f>COUNTIF(BO4:BO11,"x")</f>
-        <v>0</v>
-      </c>
-      <c r="BP14" s="1">
-        <f>COUNTIF(BP4:BP11,"x")</f>
-        <v>0</v>
-      </c>
-      <c r="BQ14" s="1">
-        <f>COUNTIF(BQ4:BQ11,"x")</f>
-        <v>0</v>
-      </c>
-      <c r="BR14" s="1">
-        <f>COUNTIF(BR4:BR11,"x")</f>
-        <v>0</v>
-      </c>
-      <c r="BS14" s="1">
-        <f>COUNTIF(BS4:BS11,"x")</f>
-        <v>0</v>
-      </c>
-      <c r="BT14" s="1">
-        <f>COUNTIF(BT4:BT11,"x")</f>
-        <v>0</v>
-      </c>
-      <c r="BU14" s="1">
-        <f>COUNTIF(BU4:BU11,"x")</f>
-        <v>0</v>
-      </c>
-      <c r="BV14" s="1">
-        <f>COUNTIF(BV4:BV11,"x")</f>
-        <v>0</v>
-      </c>
-      <c r="BW14" s="1">
-        <f>COUNTIF(BW4:BW11,"x")</f>
-        <v>0</v>
-      </c>
-      <c r="BX14" s="1">
-        <f>COUNTIF(BX4:BX11,"x")</f>
-        <v>0</v>
-      </c>
-      <c r="BY14" s="1">
-        <f>COUNTIF(BY4:BY11,"x")</f>
-        <v>0</v>
-      </c>
-      <c r="BZ14" s="1">
-        <f>COUNTIF(BZ4:BZ11,"x")</f>
-        <v>0</v>
-      </c>
-      <c r="CA14" s="1">
-        <f>COUNTIF(CA4:CA11,"x")</f>
-        <v>0</v>
-      </c>
-      <c r="CB14" s="1">
-        <f>COUNTIF(CB4:CB11,"x")</f>
-        <v>0</v>
-      </c>
-      <c r="CC14" s="1">
-        <f>COUNTIF(CC4:CC11,"x")</f>
-        <v>0</v>
-      </c>
-      <c r="CD14" s="1">
-        <f>COUNTIF(CD4:CD11,"x")</f>
-        <v>0</v>
-      </c>
-      <c r="CE14" s="1">
-        <f>COUNTIF(CE4:CE11,"x")</f>
-        <v>0</v>
-      </c>
-      <c r="CF14" s="1">
-        <f>COUNTIF(CF4:CF11,"x")</f>
-        <v>0</v>
-      </c>
-      <c r="CG14" s="1">
-        <f>COUNTIF(CG4:CG11,"x")</f>
-        <v>0</v>
-      </c>
-      <c r="CH14" s="1">
-        <f>COUNTIF(CH4:CH11,"x")</f>
-        <v>0</v>
-      </c>
-      <c r="CI14" s="1">
-        <f>COUNTIF(CI4:CI11,"x")</f>
-        <v>0</v>
-      </c>
-      <c r="CJ14" s="1">
-        <f>COUNTIF(CJ4:CJ11,"x")</f>
-        <v>0</v>
-      </c>
-      <c r="CK14" s="1">
-        <f>COUNTIF(CK4:CK11,"x")</f>
-        <v>0</v>
-      </c>
-      <c r="CL14" s="1">
-        <f>COUNTIF(CL4:CL11,"x")</f>
-        <v>0</v>
-      </c>
-      <c r="CM14" s="1">
-        <f>COUNTIF(CM4:CM11,"x")</f>
-        <v>0</v>
-      </c>
-      <c r="CN14" s="1">
-        <f>SUM(B14:CM14)</f>
-        <v>0</v>
-      </c>
-      <c r="CO14" s="2"/>
+      <c r="CN14" s="6"/>
     </row>
     <row r="15" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B15" s="1">
-        <f>COUNTIF(B4:B11,"p")</f>
+        <f t="shared" ref="B15:AG15" si="2">COUNTIF(B4:B13,"")</f>
         <v>0</v>
       </c>
       <c r="C15" s="1">
-        <f>COUNTIF(C4:C11,"p")</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="D15" s="1">
-        <f>COUNTIF(D4:D11,"p")</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
       <c r="E15" s="1">
-        <f>COUNTIF(E4:E11,"p")</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
       <c r="F15" s="1">
-        <f>COUNTIF(F4:F11,"p")</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
       <c r="G15" s="1">
-        <f>COUNTIF(G4:G11,"p")</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
       <c r="H15" s="1">
-        <f>COUNTIF(H4:H11,"p")</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
       <c r="I15" s="1">
-        <f>COUNTIF(I4:I11,"p")</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
       <c r="J15" s="1">
-        <f>COUNTIF(J4:J11,"p")</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
       <c r="K15" s="1">
-        <f>COUNTIF(K4:K11,"p")</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
       <c r="L15" s="1">
-        <f>COUNTIF(L4:L11,"p")</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
       <c r="M15" s="1">
-        <f>COUNTIF(M4:M11,"p")</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
       <c r="N15" s="1">
-        <f>COUNTIF(N4:N11,"p")</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
       <c r="O15" s="1">
-        <f>COUNTIF(O4:O11,"p")</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
       <c r="P15" s="1">
-        <f>COUNTIF(P4:P11,"p")</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
       <c r="Q15" s="1">
-        <f>COUNTIF(Q4:Q11,"p")</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
       <c r="R15" s="1">
-        <f>COUNTIF(R4:R11,"p")</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
       <c r="S15" s="1">
-        <f>COUNTIF(S4:S11,"p")</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
       <c r="T15" s="1">
-        <f>COUNTIF(T4:T11,"p")</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
       <c r="U15" s="1">
-        <f>COUNTIF(U4:U11,"p")</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
       <c r="V15" s="1">
-        <f>COUNTIF(V4:V11,"p")</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
       <c r="W15" s="1">
-        <f>COUNTIF(W4:W11,"p")</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
       <c r="X15" s="1">
-        <f>COUNTIF(X4:X11,"p")</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
       <c r="Y15" s="1">
-        <f>COUNTIF(Y4:Y11,"p")</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
       <c r="Z15" s="1">
-        <f>COUNTIF(Z4:Z11,"p")</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
       <c r="AA15" s="1">
-        <f>COUNTIF(AA4:AA11,"p")</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
       <c r="AB15" s="1">
-        <f>COUNTIF(AB4:AB11,"p")</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
       <c r="AC15" s="1">
-        <f>COUNTIF(AC4:AC11,"p")</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
       <c r="AD15" s="1">
-        <f>COUNTIF(AD4:AD11,"p")</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
       <c r="AE15" s="1">
-        <f>COUNTIF(AE4:AE11,"p")</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
       <c r="AF15" s="1">
-        <f>COUNTIF(AF4:AF11,"p")</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
       <c r="AG15" s="1">
-        <f>COUNTIF(AG4:AG11,"p")</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
       <c r="AH15" s="1">
-        <f>COUNTIF(AH4:AH11,"p")</f>
-        <v>0</v>
+        <f t="shared" ref="AH15:BM15" si="3">COUNTIF(AH4:AH13,"")</f>
+        <v>10</v>
       </c>
       <c r="AI15" s="1">
-        <f>COUNTIF(AI4:AI11,"p")</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>10</v>
       </c>
       <c r="AJ15" s="1">
-        <f>COUNTIF(AJ4:AJ11,"p")</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>10</v>
       </c>
       <c r="AK15" s="1">
-        <f>COUNTIF(AK4:AK11,"p")</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>10</v>
       </c>
       <c r="AL15" s="1">
-        <f>COUNTIF(AL4:AL11,"p")</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>10</v>
       </c>
       <c r="AM15" s="1">
-        <f>COUNTIF(AM4:AM11,"p")</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>10</v>
       </c>
       <c r="AN15" s="1">
-        <f>COUNTIF(AN4:AN11,"p")</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>10</v>
       </c>
       <c r="AO15" s="1">
-        <f>COUNTIF(AO4:AO11,"p")</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>10</v>
       </c>
       <c r="AP15" s="1">
-        <f>COUNTIF(AP4:AP11,"p")</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>10</v>
       </c>
       <c r="AQ15" s="1">
-        <f>COUNTIF(AQ4:AQ11,"p")</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>10</v>
       </c>
       <c r="AR15" s="1">
-        <f>COUNTIF(AR4:AR11,"p")</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>10</v>
       </c>
       <c r="AS15" s="1">
-        <f>COUNTIF(AS4:AS11,"p")</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>10</v>
       </c>
       <c r="AT15" s="1">
-        <f>COUNTIF(AT4:AT11,"p")</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>10</v>
       </c>
       <c r="AU15" s="1">
-        <f>COUNTIF(AU4:AU11,"p")</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>10</v>
       </c>
       <c r="AV15" s="1">
-        <f>COUNTIF(AV4:AV11,"p")</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>10</v>
       </c>
       <c r="AW15" s="1">
-        <f>COUNTIF(AW4:AW11,"p")</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>10</v>
       </c>
       <c r="AX15" s="1">
-        <f>COUNTIF(AX4:AX11,"p")</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>10</v>
       </c>
       <c r="AY15" s="1">
-        <f>COUNTIF(AY4:AY11,"p")</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>10</v>
       </c>
       <c r="AZ15" s="1">
-        <f>COUNTIF(AZ4:AZ11,"p")</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>10</v>
       </c>
       <c r="BA15" s="1">
-        <f>COUNTIF(BA4:BA11,"p")</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>10</v>
       </c>
       <c r="BB15" s="1">
-        <f>COUNTIF(BB4:BB11,"p")</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>10</v>
       </c>
       <c r="BC15" s="1">
-        <f>COUNTIF(BC4:BC11,"p")</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>10</v>
       </c>
       <c r="BD15" s="1">
-        <f>COUNTIF(BD4:BD11,"p")</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>10</v>
       </c>
       <c r="BE15" s="1">
-        <f>COUNTIF(BE4:BE11,"p")</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>10</v>
       </c>
       <c r="BF15" s="1">
-        <f>COUNTIF(BF4:BF11,"p")</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>10</v>
       </c>
       <c r="BG15" s="1">
-        <f>COUNTIF(BG4:BG11,"p")</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>10</v>
       </c>
       <c r="BH15" s="1">
-        <f>COUNTIF(BH4:BH11,"p")</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>10</v>
       </c>
       <c r="BI15" s="1">
-        <f>COUNTIF(BI4:BI11,"p")</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>10</v>
       </c>
       <c r="BJ15" s="1">
-        <f>COUNTIF(BJ4:BJ11,"p")</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>10</v>
       </c>
       <c r="BK15" s="1">
-        <f>COUNTIF(BK4:BK11,"p")</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>10</v>
       </c>
       <c r="BL15" s="1">
-        <f>COUNTIF(BL4:BL11,"p")</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>10</v>
       </c>
       <c r="BM15" s="1">
-        <f>COUNTIF(BM4:BM11,"p")</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>10</v>
       </c>
       <c r="BN15" s="1">
-        <f>COUNTIF(BN4:BN11,"p")</f>
-        <v>0</v>
+        <f t="shared" ref="BN15:CM15" si="4">COUNTIF(BN4:BN13,"")</f>
+        <v>10</v>
       </c>
       <c r="BO15" s="1">
-        <f>COUNTIF(BO4:BO11,"p")</f>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>10</v>
       </c>
       <c r="BP15" s="1">
-        <f>COUNTIF(BP4:BP11,"p")</f>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>10</v>
       </c>
       <c r="BQ15" s="1">
-        <f>COUNTIF(BQ4:BQ11,"p")</f>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>10</v>
       </c>
       <c r="BR15" s="1">
-        <f>COUNTIF(BR4:BR11,"p")</f>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>10</v>
       </c>
       <c r="BS15" s="1">
-        <f>COUNTIF(BS4:BS11,"p")</f>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>10</v>
       </c>
       <c r="BT15" s="1">
-        <f>COUNTIF(BT4:BT11,"p")</f>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>10</v>
       </c>
       <c r="BU15" s="1">
-        <f>COUNTIF(BU4:BU11,"p")</f>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>10</v>
       </c>
       <c r="BV15" s="1">
-        <f>COUNTIF(BV4:BV11,"p")</f>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>10</v>
       </c>
       <c r="BW15" s="1">
-        <f>COUNTIF(BW4:BW11,"p")</f>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>10</v>
       </c>
       <c r="BX15" s="1">
-        <f>COUNTIF(BX4:BX11,"p")</f>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>10</v>
       </c>
       <c r="BY15" s="1">
-        <f>COUNTIF(BY4:BY11,"p")</f>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>10</v>
       </c>
       <c r="BZ15" s="1">
-        <f>COUNTIF(BZ4:BZ11,"p")</f>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>10</v>
       </c>
       <c r="CA15" s="1">
-        <f>COUNTIF(CA4:CA11,"p")</f>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>10</v>
       </c>
       <c r="CB15" s="1">
-        <f>COUNTIF(CB4:CB11,"p")</f>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>10</v>
       </c>
       <c r="CC15" s="1">
-        <f>COUNTIF(CC4:CC11,"p")</f>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>10</v>
       </c>
       <c r="CD15" s="1">
-        <f>COUNTIF(CD4:CD11,"p")</f>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>10</v>
       </c>
       <c r="CE15" s="1">
-        <f>COUNTIF(CE4:CE11,"p")</f>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>10</v>
       </c>
       <c r="CF15" s="1">
-        <f>COUNTIF(CF4:CF11,"p")</f>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>10</v>
       </c>
       <c r="CG15" s="1">
-        <f>COUNTIF(CG4:CG11,"p")</f>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>10</v>
       </c>
       <c r="CH15" s="1">
-        <f>COUNTIF(CH4:CH11,"p")</f>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>10</v>
       </c>
       <c r="CI15" s="1">
-        <f>COUNTIF(CI4:CI11,"p")</f>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>10</v>
       </c>
       <c r="CJ15" s="1">
-        <f>COUNTIF(CJ4:CJ11,"p")</f>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>10</v>
       </c>
       <c r="CK15" s="1">
-        <f>COUNTIF(CK4:CK11,"p")</f>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>10</v>
       </c>
       <c r="CL15" s="1">
-        <f>COUNTIF(CL4:CL11,"p")</f>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>10</v>
       </c>
       <c r="CM15" s="1">
-        <f>COUNTIF(CM4:CM11,"p")</f>
-        <v>0</v>
-      </c>
-      <c r="CN15" s="1">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="CN15" s="6">
         <f>SUM(B15:CM15)</f>
-        <v>0</v>
-      </c>
+        <v>880</v>
+      </c>
+      <c r="CO15" s="2"/>
     </row>
     <row r="16" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B16" s="1">
-        <f>COUNTIF(B4:B11,"-")</f>
-        <v>0</v>
+        <f t="shared" ref="B16:AG16" si="5">COUNTIF(B4:B13,"x")</f>
+        <v>10</v>
       </c>
       <c r="C16" s="1">
-        <f>COUNTIF(C4:C11,"-")</f>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>10</v>
       </c>
       <c r="D16" s="1">
-        <f>COUNTIF(D4:D11,"-")</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E16" s="1">
-        <f>COUNTIF(E4:E11,"-")</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F16" s="1">
-        <f>COUNTIF(F4:F11,"-")</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G16" s="1">
-        <f>COUNTIF(G4:G11,"-")</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H16" s="1">
-        <f>COUNTIF(H4:H11,"-")</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I16" s="1">
-        <f>COUNTIF(I4:I11,"-")</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J16" s="1">
-        <f>COUNTIF(J4:J11,"-")</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K16" s="1">
-        <f>COUNTIF(K4:K11,"-")</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L16" s="1">
-        <f>COUNTIF(L4:L11,"-")</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M16" s="1">
-        <f>COUNTIF(M4:M11,"-")</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="N16" s="1">
-        <f>COUNTIF(N4:N11,"-")</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O16" s="1">
-        <f>COUNTIF(O4:O11,"-")</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P16" s="1">
-        <f>COUNTIF(P4:P11,"-")</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q16" s="1">
-        <f>COUNTIF(Q4:Q11,"-")</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R16" s="1">
-        <f>COUNTIF(R4:R11,"-")</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S16" s="1">
-        <f>COUNTIF(S4:S11,"-")</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T16" s="1">
-        <f>COUNTIF(T4:T11,"-")</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U16" s="1">
-        <f>COUNTIF(U4:U11,"-")</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="V16" s="1">
-        <f>COUNTIF(V4:V11,"-")</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="W16" s="1">
-        <f>COUNTIF(W4:W11,"-")</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="X16" s="1">
-        <f>COUNTIF(X4:X11,"-")</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Y16" s="1">
-        <f>COUNTIF(Y4:Y11,"-")</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <f>COUNTIF(Z4:Z11,"-")</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AA16" s="1">
-        <f>COUNTIF(AA4:AA11,"-")</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AB16" s="1">
-        <f>COUNTIF(AB4:AB11,"-")</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AC16" s="1">
-        <f>COUNTIF(AC4:AC11,"-")</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AD16" s="1">
-        <f>COUNTIF(AD4:AD11,"-")</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <f>COUNTIF(AE4:AE11,"-")</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AF16" s="1">
-        <f>COUNTIF(AF4:AF11,"-")</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AG16" s="1">
-        <f>COUNTIF(AG4:AG11,"-")</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AH16" s="1">
-        <f>COUNTIF(AH4:AH11,"-")</f>
+        <f t="shared" ref="AH16:BM16" si="6">COUNTIF(AH4:AH13,"x")</f>
         <v>0</v>
       </c>
       <c r="AI16" s="1">
-        <f>COUNTIF(AI4:AI11,"-")</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <f>COUNTIF(AJ4:AJ11,"-")</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AK16" s="1">
-        <f>COUNTIF(AK4:AK11,"-")</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AL16" s="1">
-        <f>COUNTIF(AL4:AL11,"-")</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AM16" s="1">
-        <f>COUNTIF(AM4:AM11,"-")</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AN16" s="1">
-        <f>COUNTIF(AN4:AN11,"-")</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <f>COUNTIF(AO4:AO11,"-")</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AP16" s="1">
-        <f>COUNTIF(AP4:AP11,"-")</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AQ16" s="1">
-        <f>COUNTIF(AQ4:AQ11,"-")</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AR16" s="1">
-        <f>COUNTIF(AR4:AR11,"-")</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AS16" s="1">
-        <f>COUNTIF(AS4:AS11,"-")</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <f>COUNTIF(AT4:AT11,"-")</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AU16" s="1">
-        <f>COUNTIF(AU4:AU11,"-")</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AV16" s="1">
-        <f>COUNTIF(AV4:AV11,"-")</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AW16" s="1">
-        <f>COUNTIF(AW4:AW11,"-")</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AX16" s="1">
-        <f>COUNTIF(AX4:AX11,"-")</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <f>COUNTIF(AY4:AY11,"-")</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AZ16" s="1">
-        <f>COUNTIF(AZ4:AZ11,"-")</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BA16" s="1">
-        <f>COUNTIF(BA4:BA11,"-")</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BB16" s="1">
-        <f>COUNTIF(BB4:BB11,"-")</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BC16" s="1">
-        <f>COUNTIF(BC4:BC11,"-")</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <f>COUNTIF(BD4:BD11,"-")</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BE16" s="1">
-        <f>COUNTIF(BE4:BE11,"-")</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BF16" s="1">
-        <f>COUNTIF(BF4:BF11,"-")</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BG16" s="1">
-        <f>COUNTIF(BG4:BG11,"-")</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BH16" s="1">
-        <f>COUNTIF(BH4:BH11,"-")</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <f>COUNTIF(BI4:BI11,"-")</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BJ16" s="1">
-        <f>COUNTIF(BJ4:BJ11,"-")</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BK16" s="1">
-        <f>COUNTIF(BK4:BK11,"-")</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BL16" s="1">
-        <f>COUNTIF(BL4:BL11,"-")</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BM16" s="1">
-        <f>COUNTIF(BM4:BM11,"-")</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <f>COUNTIF(BN4:BN11,"-")</f>
+        <f t="shared" ref="BN16:CM16" si="7">COUNTIF(BN4:BN13,"x")</f>
         <v>0</v>
       </c>
       <c r="BO16" s="1">
-        <f>COUNTIF(BO4:BO11,"-")</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="BP16" s="1">
-        <f>COUNTIF(BP4:BP11,"-")</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="BQ16" s="1">
-        <f>COUNTIF(BQ4:BQ11,"-")</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="BR16" s="1">
-        <f>COUNTIF(BR4:BR11,"-")</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <f>COUNTIF(BS4:BS11,"-")</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="BT16" s="1">
-        <f>COUNTIF(BT4:BT11,"-")</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="BU16" s="1">
-        <f>COUNTIF(BU4:BU11,"-")</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="BV16" s="1">
-        <f>COUNTIF(BV4:BV11,"-")</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="BW16" s="1">
-        <f>COUNTIF(BW4:BW11,"-")</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <f>COUNTIF(BX4:BX11,"-")</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="BY16" s="1">
-        <f>COUNTIF(BY4:BY11,"-")</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="BZ16" s="1">
-        <f>COUNTIF(BZ4:BZ11,"-")</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="CA16" s="1">
-        <f>COUNTIF(CA4:CA11,"-")</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="CB16" s="1">
-        <f>COUNTIF(CB4:CB11,"-")</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <f>COUNTIF(CC4:CC11,"-")</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="CD16" s="1">
-        <f>COUNTIF(CD4:CD11,"-")</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="CE16" s="1">
-        <f>COUNTIF(CE4:CE11,"-")</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="CF16" s="1">
-        <f>COUNTIF(CF4:CF11,"-")</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="CG16" s="1">
-        <f>COUNTIF(CG4:CG11,"-")</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="CH16" s="1">
-        <f>COUNTIF(CH4:CH11,"-")</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="CI16" s="1">
-        <f>COUNTIF(CI4:CI11,"-")</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="CJ16" s="1">
-        <f>COUNTIF(CJ4:CJ11,"-")</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="CK16" s="1">
-        <f>COUNTIF(CK4:CK11,"-")</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="CL16" s="1">
-        <f>COUNTIF(CL4:CL11,"-")</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="CM16" s="1">
-        <f>COUNTIF(CM4:CM11,"-")</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="CN16" s="1">
         <f>SUM(B16:CM16)</f>
+        <v>20</v>
+      </c>
+      <c r="CO16" s="2"/>
+    </row>
+    <row r="17" spans="1:92" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B17" s="1">
+        <f t="shared" ref="B17:AG17" si="8">COUNTIF(B4:B13,"p")</f>
+        <v>0</v>
+      </c>
+      <c r="C17" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="D17" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E17" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F17" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G17" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H17" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I17" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J17" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K17" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L17" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M17" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N17" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="O17" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P17" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q17" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="R17" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S17" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T17" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="U17" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="V17" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="W17" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="X17" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Y17" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Z17" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AA17" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AB17" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AC17" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AD17" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AE17" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AF17" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AG17" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AH17" s="1">
+        <f t="shared" ref="AH17:BM17" si="9">COUNTIF(AH4:AH13,"p")</f>
+        <v>0</v>
+      </c>
+      <c r="AI17" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AJ17" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AK17" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AL17" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AM17" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AN17" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AO17" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AP17" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AQ17" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AR17" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AS17" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AT17" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AU17" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AV17" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AW17" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AX17" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AY17" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AZ17" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="BA17" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="BB17" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="BC17" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="BD17" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="BE17" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="BF17" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="BG17" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="BH17" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="BI17" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="BJ17" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="BK17" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="BL17" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="BM17" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="BN17" s="1">
+        <f t="shared" ref="BN17:CM17" si="10">COUNTIF(BN4:BN13,"p")</f>
+        <v>0</v>
+      </c>
+      <c r="BO17" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="BP17" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="BQ17" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="BR17" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="BS17" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="BT17" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="BU17" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="BV17" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="BW17" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="BX17" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="BY17" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="BZ17" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="CA17" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="CB17" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="CC17" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="CD17" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="CE17" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="CF17" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="CG17" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="CH17" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="CI17" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="CJ17" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="CK17" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="CL17" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="CM17" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="CN17" s="1">
+        <f>SUM(B17:CM17)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:92" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B18" s="1">
+        <f t="shared" ref="B18:AG18" si="11">COUNTIF(B4:B13,"-")</f>
+        <v>0</v>
+      </c>
+      <c r="C18" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="D18" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="E18" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="F18" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G18" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="H18" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="I18" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="J18" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="K18" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="L18" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="M18" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N18" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="O18" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="P18" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Q18" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="R18" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="S18" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="T18" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="U18" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="V18" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="W18" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="X18" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Y18" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Z18" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AA18" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AB18" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AC18" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AD18" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AE18" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AF18" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AG18" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AH18" s="1">
+        <f t="shared" ref="AH18:BM18" si="12">COUNTIF(AH4:AH13,"-")</f>
+        <v>0</v>
+      </c>
+      <c r="AI18" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AJ18" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AK18" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AL18" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AM18" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AN18" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AO18" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AP18" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AQ18" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AR18" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AS18" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AT18" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AU18" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AV18" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AW18" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AX18" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AY18" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AZ18" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="BA18" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="BB18" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="BC18" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="BD18" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="BE18" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="BF18" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="BG18" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="BH18" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="BI18" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="BJ18" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="BK18" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="BL18" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="BM18" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="BN18" s="1">
+        <f t="shared" ref="BN18:CM18" si="13">COUNTIF(BN4:BN13,"-")</f>
+        <v>0</v>
+      </c>
+      <c r="BO18" s="1">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="BP18" s="1">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="BQ18" s="1">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="BR18" s="1">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="BS18" s="1">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="BT18" s="1">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="BU18" s="1">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="BV18" s="1">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="BW18" s="1">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="BX18" s="1">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="BY18" s="1">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="BZ18" s="1">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="CA18" s="1">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="CB18" s="1">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="CC18" s="1">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="CD18" s="1">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="CE18" s="1">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="CF18" s="1">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="CG18" s="1">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="CH18" s="1">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="CI18" s="1">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="CJ18" s="1">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="CK18" s="1">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="CL18" s="1">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="CM18" s="1">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="CN18" s="1">
+        <f>SUM(B18:CM18)</f>
         <v>0</v>
       </c>
     </row>
@@ -4079,12 +4334,12 @@
     <mergeCell ref="AP2:AY2"/>
     <mergeCell ref="AZ2:BE2"/>
   </mergeCells>
-  <conditionalFormatting sqref="B4:C11">
+  <conditionalFormatting sqref="B4:C13">
     <cfRule type="containsBlanks" dxfId="3" priority="48">
       <formula>LEN(TRIM(B4))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B4:CM11">
+  <conditionalFormatting sqref="B4:CM13">
     <cfRule type="cellIs" dxfId="2" priority="46" operator="equal">
       <formula>"-"</formula>
     </cfRule>
@@ -4092,7 +4347,7 @@
       <formula>"p"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B13:CM16">
+  <conditionalFormatting sqref="B15:CM18">
     <cfRule type="colorScale" priority="206">
       <colorScale>
         <cfvo type="min"/>
@@ -4104,12 +4359,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D4:CM11">
+  <conditionalFormatting sqref="D4:CM13">
     <cfRule type="containsBlanks" dxfId="0" priority="49" stopIfTrue="1">
       <formula>LEN(TRIM(D4))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CO4:CO11">
+  <conditionalFormatting sqref="CO4:CO13">
     <cfRule type="colorScale" priority="208">
       <colorScale>
         <cfvo type="min"/>
